--- a/compras_ingressos.xlsx
+++ b/compras_ingressos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/compras_ingressos.xlsx
+++ b/compras_ingressos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Quantidade</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nomes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Documentos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -462,6 +472,8 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -470,6 +482,8 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -478,6 +492,8 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -486,6 +502,8 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -494,6 +512,8 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -502,6 +522,8 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -510,6 +532,8 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -518,6 +542,8 @@
       <c r="D9" t="n">
         <v>3</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -526,6 +552,8 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -534,6 +562,8 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -542,6 +572,8 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -550,6 +582,8 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -558,6 +592,8 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -566,6 +602,8 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -574,6 +612,8 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -582,6 +622,30 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rafael.honorato03@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rafael Honorato, Tábata Serqueira</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>48993755X, 3434656</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/compras_ingressos.xlsx
+++ b/compras_ingressos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,16 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
